--- a/data/idcontacts.xlsx
+++ b/data/idcontacts.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="260">
   <si>
     <t>id</t>
   </si>
@@ -643,13 +643,166 @@
   </si>
   <si>
     <t>Davydenko</t>
+  </si>
+  <si>
+    <t>guid</t>
+  </si>
+  <si>
+    <t>defe0074-96ba-4bb9-8fb9-2744fa99d434</t>
+  </si>
+  <si>
+    <t>a157d60e-eddc-4321-8989-6b793a448077</t>
+  </si>
+  <si>
+    <t>626e029e-8e53-441a-898b-bd3850846fb0</t>
+  </si>
+  <si>
+    <t>a5080454-88b5-439f-9803-86ec14decc80</t>
+  </si>
+  <si>
+    <t>a7c65a96-cab7-4c93-8f42-9a8df2b7aa4f</t>
+  </si>
+  <si>
+    <t>46a00696-3675-4f9d-ae3c-5cd3cd57668f</t>
+  </si>
+  <si>
+    <t>19f422a8-18c1-4e32-a3c2-73df03b2a52e</t>
+  </si>
+  <si>
+    <t>2c118040-46b2-47eb-aa87-2f9ba94cdfba</t>
+  </si>
+  <si>
+    <t>5b5fa803-e827-4281-a4ff-dd1eed0667e6</t>
+  </si>
+  <si>
+    <t>06d7e3ae-8548-451c-a147-ccaadee0a66b</t>
+  </si>
+  <si>
+    <t>49fd3087-961e-45c5-bfed-e488c7df8ea8</t>
+  </si>
+  <si>
+    <t>25506943-1ce7-4721-b777-746f82d8f276</t>
+  </si>
+  <si>
+    <t>c9a1ca63-db1d-496d-a729-f32449ad8684</t>
+  </si>
+  <si>
+    <t>6ef3da45-c12e-4583-9f1b-3c58c6da0611</t>
+  </si>
+  <si>
+    <t>f60a0742-b3e7-41c8-9799-d8b17bc79770</t>
+  </si>
+  <si>
+    <t>cee59ba9-b072-426d-a2eb-a5a87dd1dc89</t>
+  </si>
+  <si>
+    <t>93b2e95f-cbe4-47fa-9aea-1d6b8e2f0227</t>
+  </si>
+  <si>
+    <t>436bf582-7537-4c0d-a33a-ae64a74a61f4</t>
+  </si>
+  <si>
+    <t>813cb82d-ab7c-406e-b7c7-56402bdbc491</t>
+  </si>
+  <si>
+    <t>8a42543f-94f5-4bea-9c7a-2c98e19aa062</t>
+  </si>
+  <si>
+    <t>ccdebe59-78be-4005-bdff-1205702071bf</t>
+  </si>
+  <si>
+    <t>5ecf9df5-bdf3-4b2a-a3d9-c0708b603210</t>
+  </si>
+  <si>
+    <t>e90138a1-eb93-40bf-b0b8-1fbb536052d9</t>
+  </si>
+  <si>
+    <t>78704270-c238-4707-92e5-63da12b26737</t>
+  </si>
+  <si>
+    <t>e9f12ca5-07ec-4901-a983-2a8ae9b3bf72</t>
+  </si>
+  <si>
+    <t>9b27f8d9-85c8-426d-a355-266765fb661a</t>
+  </si>
+  <si>
+    <t>39df41d4-440f-4142-9fcf-07ea72faa8f2</t>
+  </si>
+  <si>
+    <t>66eb5ef3-f452-4139-9d43-c3f8fe4b8e5b</t>
+  </si>
+  <si>
+    <t>e8ad1536-9ced-4fa0-b6c8-eb424ae84a38</t>
+  </si>
+  <si>
+    <t>c2d062db-63fb-45fd-b3aa-4a0dc0e1e27e</t>
+  </si>
+  <si>
+    <t>90b0190e-4763-4c76-a76d-eb0b5b87c0f6</t>
+  </si>
+  <si>
+    <t>ec7c2477-3fc4-4ded-a3b0-32aa6b3dfc04</t>
+  </si>
+  <si>
+    <t>91b1d446-2f49-4627-b27b-2faea8e47fe9</t>
+  </si>
+  <si>
+    <t>2d30fe2a-cada-4a20-ab80-7b25391cc255</t>
+  </si>
+  <si>
+    <t>8922f339-1e6f-457c-b0d4-677ac1bec1d0</t>
+  </si>
+  <si>
+    <t>82f81365-2bce-4201-9da6-e3d7c8c201b9</t>
+  </si>
+  <si>
+    <t>d32e5cf5-7abd-4c32-81c9-2c2cad54b142</t>
+  </si>
+  <si>
+    <t>c95595dc-961e-4e59-abab-05e890c770fa</t>
+  </si>
+  <si>
+    <t>3a70ae0c-4561-412c-b0a5-72c5e87c4029</t>
+  </si>
+  <si>
+    <t>7c53e8d1-f5d3-41a5-b4e0-a3fdbdce411c</t>
+  </si>
+  <si>
+    <t>c0b1c04a-7788-4ad8-a644-19ec182030d5</t>
+  </si>
+  <si>
+    <t>e6efcc92-49c6-49e2-b191-a5de734dc72d</t>
+  </si>
+  <si>
+    <t>5408be83-19d0-43a8-9f16-6ea048304db6</t>
+  </si>
+  <si>
+    <t>Vladyslav</t>
+  </si>
+  <si>
+    <t>Kurmaz</t>
+  </si>
+  <si>
+    <t>vladislav.kurmaz@gmail.com</t>
+  </si>
+  <si>
+    <t>vladyslav.kurmaz@globallogic.com</t>
+  </si>
+  <si>
+    <t>vladislav.kurmaz</t>
+  </si>
+  <si>
+    <t>https://twitter.com/VladyslavKurmaz</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/vladyslav.kurmaz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -785,6 +938,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1083,7 +1243,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1126,14 +1286,19 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1161,6 +1326,7 @@
     <cellStyle name="Ввод " xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Вывод" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Вычисление" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Гиперссылка" xfId="42" builtinId="8"/>
     <cellStyle name="Заголовок 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Заголовок 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Заголовок 3" xfId="4" builtinId="18" customBuiltin="1"/>
@@ -1467,1267 +1633,1443 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="52.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="73.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>139</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="60">
+    <row r="2" spans="1:16" ht="60">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" t="s">
         <v>140</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>141</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
       <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
       <c r="H2" t="s">
         <v>17</v>
       </c>
       <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
         <v>18</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" t="s">
         <v>142</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>143</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>21</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>380679837464</v>
       </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
       <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
         <v>22</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" t="s">
         <v>144</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>145</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
       <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
       <c r="H4" t="s">
         <v>17</v>
       </c>
       <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
         <v>26</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>27</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>28</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" t="s">
         <v>140</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>146</v>
       </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
       <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
         <v>30</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>31</v>
       </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
       <c r="H5" t="s">
         <v>17</v>
       </c>
       <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
         <v>32</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" t="s">
         <v>147</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>148</v>
       </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
       <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
         <v>34</v>
       </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
       <c r="H6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" t="s">
         <v>149</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>150</v>
       </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
       <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
         <v>35</v>
       </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
       <c r="H7" t="s">
         <v>17</v>
       </c>
-      <c r="N7" t="s">
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C8" t="s">
         <v>151</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>152</v>
       </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
       <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>37</v>
       </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
       <c r="H8" t="s">
         <v>17</v>
       </c>
       <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C9" t="s">
         <v>153</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>154</v>
       </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
       <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
         <v>39</v>
       </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
       <c r="H9" t="s">
         <v>17</v>
       </c>
       <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
         <v>40</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" t="s">
         <v>155</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>156</v>
       </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
       <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
         <v>42</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>43</v>
       </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
       <c r="H10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C11" t="s">
         <v>157</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>158</v>
       </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
       <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
         <v>44</v>
       </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
       <c r="H11" t="s">
         <v>17</v>
       </c>
-      <c r="J11" t="s">
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" t="s">
         <v>45</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>220</v>
+      </c>
+      <c r="C12" t="s">
         <v>140</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>159</v>
       </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
       <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
         <v>47</v>
       </c>
-      <c r="G12" t="s">
-        <v>17</v>
-      </c>
       <c r="H12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>221</v>
+      </c>
+      <c r="C13" t="s">
         <v>160</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>161</v>
       </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
       <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
         <v>48</v>
       </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
       <c r="H13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>222</v>
+      </c>
+      <c r="C14" t="s">
         <v>162</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>163</v>
       </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
       <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
         <v>49</v>
       </c>
-      <c r="G14" t="s">
-        <v>17</v>
-      </c>
       <c r="H14" t="s">
         <v>17</v>
       </c>
       <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>223</v>
+      </c>
+      <c r="C15" t="s">
         <v>164</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>165</v>
       </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
       <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
         <v>51</v>
       </c>
-      <c r="G15" t="s">
-        <v>17</v>
-      </c>
       <c r="H15" t="s">
         <v>17</v>
       </c>
-      <c r="N15" t="s">
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+      <c r="O15" t="s">
         <v>52</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>224</v>
+      </c>
+      <c r="C16" t="s">
         <v>166</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>167</v>
       </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
       <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
         <v>54</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>55</v>
       </c>
-      <c r="G16" t="s">
-        <v>17</v>
-      </c>
       <c r="H16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>225</v>
+      </c>
+      <c r="C17" t="s">
         <v>168</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>169</v>
       </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
       <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
         <v>56</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>57</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>380919173093</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>380930108339</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>58</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>59</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>226</v>
+      </c>
+      <c r="C18" t="s">
         <v>151</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>170</v>
       </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
       <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
         <v>61</v>
       </c>
-      <c r="G18" t="s">
-        <v>17</v>
-      </c>
       <c r="H18" t="s">
         <v>17</v>
       </c>
       <c r="I18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" t="s">
         <v>62</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>227</v>
+      </c>
+      <c r="C19" t="s">
         <v>171</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>172</v>
       </c>
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
       <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
         <v>64</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>65</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>380663214461</v>
       </c>
-      <c r="H19" t="s">
-        <v>17</v>
-      </c>
       <c r="I19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" t="s">
         <v>66</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>67</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>228</v>
+      </c>
+      <c r="C20" t="s">
         <v>162</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>173</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>69</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>70</v>
       </c>
-      <c r="G20" t="s">
-        <v>17</v>
-      </c>
       <c r="H20" t="s">
         <v>17</v>
       </c>
       <c r="I20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" t="s">
         <v>71</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:16">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>229</v>
+      </c>
+      <c r="C21" t="s">
         <v>168</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>174</v>
       </c>
-      <c r="D21" t="s">
-        <v>14</v>
-      </c>
       <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
         <v>73</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>74</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>380634501700</v>
       </c>
-      <c r="H21" t="s">
-        <v>17</v>
-      </c>
       <c r="I21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:16">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>230</v>
+      </c>
+      <c r="C22" t="s">
         <v>175</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>176</v>
       </c>
-      <c r="D22" t="s">
-        <v>14</v>
-      </c>
       <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
         <v>76</v>
       </c>
-      <c r="G22" t="s">
-        <v>17</v>
-      </c>
       <c r="H22" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="I22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>231</v>
+      </c>
+      <c r="C23" t="s">
         <v>166</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>177</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>77</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>78</v>
       </c>
-      <c r="G23" t="s">
-        <v>17</v>
-      </c>
       <c r="H23" t="s">
         <v>17</v>
       </c>
-      <c r="N23" t="s">
+      <c r="I23" t="s">
+        <v>17</v>
+      </c>
+      <c r="O23" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:16">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>232</v>
+      </c>
+      <c r="C24" t="s">
         <v>178</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>179</v>
       </c>
-      <c r="D24" t="s">
-        <v>14</v>
-      </c>
       <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
         <v>80</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>81</v>
       </c>
-      <c r="G24" t="s">
-        <v>17</v>
-      </c>
       <c r="H24" t="s">
         <v>17</v>
       </c>
       <c r="I24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" t="s">
         <v>82</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="30">
+    <row r="25" spans="1:16" ht="30">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>233</v>
+      </c>
+      <c r="C25" t="s">
         <v>180</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>181</v>
       </c>
-      <c r="D25" t="s">
-        <v>14</v>
-      </c>
       <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
         <v>84</v>
       </c>
-      <c r="G25" t="s">
-        <v>17</v>
-      </c>
       <c r="H25" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:16">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>234</v>
+      </c>
+      <c r="C26" t="s">
         <v>140</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>182</v>
       </c>
-      <c r="D26" t="s">
-        <v>14</v>
-      </c>
       <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
         <v>86</v>
       </c>
-      <c r="G26" t="s">
-        <v>17</v>
-      </c>
       <c r="H26" t="s">
         <v>17</v>
       </c>
       <c r="I26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" t="s">
         <v>87</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>88</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:16">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>235</v>
+      </c>
+      <c r="C27" t="s">
         <v>183</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>184</v>
       </c>
-      <c r="D27" t="s">
-        <v>14</v>
-      </c>
       <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
         <v>90</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>380638367968</v>
       </c>
-      <c r="H27" t="s">
-        <v>17</v>
-      </c>
       <c r="I27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" t="s">
         <v>91</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>92</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:16">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>236</v>
+      </c>
+      <c r="C28" t="s">
         <v>142</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>185</v>
       </c>
-      <c r="D28" t="s">
-        <v>14</v>
-      </c>
       <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
         <v>94</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>95</v>
       </c>
-      <c r="G28" t="s">
-        <v>17</v>
-      </c>
       <c r="H28" t="s">
         <v>17</v>
       </c>
       <c r="I28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" t="s">
         <v>96</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
         <v>97</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:16">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>237</v>
+      </c>
+      <c r="C29" t="s">
         <v>186</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>187</v>
       </c>
-      <c r="D29" t="s">
-        <v>14</v>
-      </c>
       <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
         <v>99</v>
       </c>
-      <c r="G29" t="s">
-        <v>17</v>
-      </c>
       <c r="H29" t="s">
         <v>17</v>
       </c>
       <c r="I29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:16">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>238</v>
+      </c>
+      <c r="C30" t="s">
         <v>188</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>189</v>
       </c>
-      <c r="D30" t="s">
-        <v>14</v>
-      </c>
       <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
         <v>101</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>102</v>
       </c>
-      <c r="G30" t="s">
-        <v>17</v>
-      </c>
       <c r="H30" t="s">
         <v>17</v>
       </c>
       <c r="I30" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" t="s">
         <v>103</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>104</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:16">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>239</v>
+      </c>
+      <c r="C31" t="s">
         <v>190</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>191</v>
       </c>
-      <c r="D31" t="s">
-        <v>14</v>
-      </c>
       <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s">
         <v>106</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>107</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>380919012686</v>
       </c>
-      <c r="H31" t="s">
-        <v>17</v>
-      </c>
       <c r="I31" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" t="s">
         <v>108</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>109</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>110</v>
       </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:16">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C32" t="s">
         <v>188</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>192</v>
       </c>
-      <c r="D32" t="s">
-        <v>14</v>
-      </c>
       <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s">
         <v>112</v>
       </c>
-      <c r="G32" t="s">
-        <v>17</v>
-      </c>
       <c r="H32" t="s">
         <v>17</v>
       </c>
       <c r="I32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:15">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>241</v>
+      </c>
+      <c r="C33" t="s">
         <v>193</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>194</v>
       </c>
-      <c r="D33" t="s">
-        <v>14</v>
-      </c>
       <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
         <v>114</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>115</v>
       </c>
-      <c r="G33" t="s">
-        <v>17</v>
-      </c>
       <c r="H33" t="s">
         <v>17</v>
       </c>
       <c r="I33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" t="s">
         <v>116</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:15">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>242</v>
+      </c>
+      <c r="C34" t="s">
         <v>195</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>196</v>
       </c>
-      <c r="D34" t="s">
-        <v>14</v>
-      </c>
       <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
         <v>118</v>
       </c>
-      <c r="G34" t="s">
-        <v>17</v>
-      </c>
       <c r="H34" t="s">
         <v>17</v>
       </c>
       <c r="I34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" t="s">
         <v>119</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:15">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>243</v>
+      </c>
+      <c r="C35" t="s">
         <v>197</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>198</v>
       </c>
-      <c r="D35" t="s">
-        <v>14</v>
-      </c>
       <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s">
         <v>121</v>
       </c>
-      <c r="G35" t="s">
-        <v>17</v>
-      </c>
       <c r="H35" t="s">
         <v>17</v>
       </c>
       <c r="I35" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:15">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>244</v>
+      </c>
+      <c r="C36" t="s">
         <v>199</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>200</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>123</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>124</v>
       </c>
-      <c r="G36" t="s">
-        <v>17</v>
-      </c>
       <c r="H36" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="37" spans="1:14">
+      <c r="I36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>245</v>
+      </c>
+      <c r="C37" t="s">
         <v>153</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>201</v>
       </c>
-      <c r="D37" t="s">
-        <v>14</v>
-      </c>
       <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" t="s">
         <v>125</v>
       </c>
-      <c r="G37" t="s">
-        <v>17</v>
-      </c>
       <c r="H37" t="s">
         <v>17</v>
       </c>
       <c r="I37" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" t="s">
         <v>126</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:15">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>246</v>
+      </c>
+      <c r="C38" t="s">
         <v>175</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>202</v>
       </c>
-      <c r="D38" t="s">
-        <v>14</v>
-      </c>
       <c r="E38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" t="s">
         <v>128</v>
       </c>
-      <c r="G38" t="s">
-        <v>17</v>
-      </c>
       <c r="H38" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="39" spans="1:14">
+      <c r="I38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>247</v>
+      </c>
+      <c r="C39" t="s">
         <v>147</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>203</v>
       </c>
-      <c r="D39" t="s">
-        <v>14</v>
-      </c>
       <c r="E39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" t="s">
         <v>129</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>130</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>380634782484</v>
       </c>
-      <c r="H39" t="s">
-        <v>17</v>
-      </c>
       <c r="I39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:15">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>248</v>
+      </c>
+      <c r="C40" t="s">
         <v>204</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>205</v>
       </c>
-      <c r="D40" t="s">
-        <v>14</v>
-      </c>
       <c r="E40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" t="s">
         <v>132</v>
       </c>
-      <c r="G40" t="s">
-        <v>17</v>
-      </c>
       <c r="H40" t="s">
         <v>17</v>
       </c>
       <c r="I40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" t="s">
         <v>133</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:15">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>249</v>
+      </c>
+      <c r="C41" t="s">
         <v>190</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>206</v>
       </c>
-      <c r="D41" t="s">
-        <v>14</v>
-      </c>
       <c r="E41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" t="s">
         <v>135</v>
       </c>
-      <c r="G41" t="s">
-        <v>17</v>
-      </c>
       <c r="H41" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="42" spans="1:14">
+      <c r="I41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>250</v>
+      </c>
+      <c r="C42" t="s">
         <v>140</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>207</v>
       </c>
-      <c r="D42" t="s">
-        <v>14</v>
-      </c>
       <c r="E42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" t="s">
         <v>136</v>
       </c>
-      <c r="G42" t="s">
-        <v>17</v>
-      </c>
       <c r="H42" t="s">
         <v>17</v>
       </c>
-      <c r="N42" t="s">
+      <c r="I42" t="s">
+        <v>17</v>
+      </c>
+      <c r="O42" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:15">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>251</v>
+      </c>
+      <c r="C43" t="s">
         <v>142</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>208</v>
       </c>
-      <c r="D43" t="s">
-        <v>14</v>
-      </c>
       <c r="E43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G43" t="s">
-        <v>17</v>
-      </c>
       <c r="H43" t="s">
         <v>17</v>
       </c>
+      <c r="I43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>252</v>
+      </c>
+      <c r="C44" t="s">
+        <v>253</v>
+      </c>
+      <c r="D44" t="s">
+        <v>254</v>
+      </c>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="J44" t="s">
+        <v>257</v>
+      </c>
+      <c r="K44" t="s">
+        <v>258</v>
+      </c>
+      <c r="L44" t="s">
+        <v>259</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G44" r:id="rId1"/>
+    <hyperlink ref="F43" r:id="rId2"/>
+    <hyperlink ref="F44" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>